--- a/input_ebs_volumes.xlsx
+++ b/input_ebs_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmanoduv\Desktop\docs\code\git_repo\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE061DA1-25E3-4F20-8F24-74EEC7AD7512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC8B06-494F-41E5-96A8-52A9D42F8594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1" xr2:uid="{7BF96EA4-294C-3041-AD8B-25A51595320B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>region</t>
   </si>
@@ -92,6 +92,24 @@
   </si>
   <si>
     <t>MyTestWeb</t>
+  </si>
+  <si>
+    <t>i-0bc3842d7a12f7151</t>
+  </si>
+  <si>
+    <t>vol-00d5db4f26abcce42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cloud9 </t>
+  </si>
+  <si>
+    <t>t2.micro</t>
+  </si>
+  <si>
+    <t>cloud9</t>
+  </si>
+  <si>
+    <t>gp2</t>
   </si>
 </sst>
 </file>
@@ -521,19 +539,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C9209A-67A5-9C45-BB38-6AFF36CA97CF}">
   <dimension ref="A1:K719"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="28.83203125" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.1640625" customWidth="1"/>
     <col min="9" max="9" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="46.5" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -641,6 +660,38 @@
         <v>21</v>
       </c>
     </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="673" spans="2:6">
       <c r="F673" s="2"/>
     </row>
@@ -922,6 +973,9 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B4" r:id="rId1" location="Volumes:volumeId=vol-00d5db4f26abcce42;sort=desc:createTime" display="https://us-east-1.console.aws.amazon.com/ec2/home?region=us-east-1 - Volumes:volumeId=vol-00d5db4f26abcce42;sort=desc:createTime" xr:uid="{53183FF8-CFF8-42EE-B608-D297586F1048}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/input_ebs_volumes.xlsx
+++ b/input_ebs_volumes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zmanoduv\Desktop\docs\code\git_repo\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82EC8B06-494F-41E5-96A8-52A9D42F8594}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05830DC4-B032-4A7B-8DB1-402F8D45BE14}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1" xr2:uid="{7BF96EA4-294C-3041-AD8B-25A51595320B}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>region</t>
   </si>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8C9209A-67A5-9C45-BB38-6AFF36CA97CF}">
   <dimension ref="A1:K719"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -661,6 +661,9 @@
       </c>
     </row>
     <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
       <c r="B4" t="s">
         <v>23</v>
       </c>
